--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85873731-F064-4DFF-AE20-EFAEB01681D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ステージ" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <t>【</t>
@@ -76,7 +77,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページ切り替えのステージ(コストが1の場合)</t>
+    <t>操作対象が複数体のステージ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フクスウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ切り替えのステージ(コストが2の場合)</t>
     <rPh sb="3" eb="4">
       <t>キ</t>
     </rPh>
@@ -88,11 +102,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゴールさせてはいけないものがあるステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +221,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -211,8 +229,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="642097"/>
-          <a:ext cx="7877287" cy="4068184"/>
+          <a:off x="190500" y="628650"/>
+          <a:ext cx="7782197" cy="3947160"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -222,7 +240,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -275,7 +293,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -326,7 +344,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -377,7 +395,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -431,7 +449,7 @@
           <xdr:cNvPr id="7" name="図 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -472,7 +490,7 @@
           <xdr:cNvPr id="8" name="図 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -528,7 +546,7 @@
         <xdr:cNvPr id="9" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,7 +612,7 @@
         <xdr:cNvPr id="17" name="グループ化 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,8 +620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9181540" y="623047"/>
-          <a:ext cx="7877287" cy="4070985"/>
+          <a:off x="9069161" y="609600"/>
+          <a:ext cx="7782197" cy="3956685"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -613,7 +631,7 @@
           <xdr:cNvPr id="18" name="正方形/長方形 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -666,7 +684,7 @@
           <xdr:cNvPr id="19" name="正方形/長方形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -717,7 +735,7 @@
           <xdr:cNvPr id="20" name="正方形/長方形 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -768,7 +786,7 @@
           <xdr:cNvPr id="21" name="正方形/長方形 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -822,7 +840,7 @@
           <xdr:cNvPr id="22" name="図 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -863,7 +881,7 @@
           <xdr:cNvPr id="23" name="図 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -919,7 +937,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,7 +1006,7 @@
         <xdr:cNvPr id="25" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F920C273-4E2F-329A-268B-1628529F11C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1072,7 @@
         <xdr:cNvPr id="26" name="グループ化 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,8 +1080,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209550" y="5431491"/>
-          <a:ext cx="7877287" cy="4070985"/>
+          <a:off x="209550" y="5276850"/>
+          <a:ext cx="7782197" cy="3956685"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1073,7 +1091,7 @@
           <xdr:cNvPr id="27" name="正方形/長方形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1126,7 +1144,7 @@
           <xdr:cNvPr id="28" name="正方形/長方形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1177,7 +1195,7 @@
           <xdr:cNvPr id="29" name="正方形/長方形 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1228,7 +1246,7 @@
           <xdr:cNvPr id="30" name="正方形/長方形 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1282,7 +1300,7 @@
           <xdr:cNvPr id="31" name="図 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1323,7 +1341,7 @@
           <xdr:cNvPr id="32" name="図 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1379,7 +1397,7 @@
         <xdr:cNvPr id="33" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1463,7 @@
         <xdr:cNvPr id="35" name="グループ化 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,8 +1471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9238690" y="5441016"/>
-          <a:ext cx="7875046" cy="4070985"/>
+          <a:off x="9126311" y="5286375"/>
+          <a:ext cx="7771311" cy="3956685"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1464,7 +1482,7 @@
           <xdr:cNvPr id="36" name="正方形/長方形 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1517,7 +1535,7 @@
           <xdr:cNvPr id="37" name="正方形/長方形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1568,7 +1586,7 @@
           <xdr:cNvPr id="38" name="正方形/長方形 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1619,7 +1637,7 @@
           <xdr:cNvPr id="39" name="正方形/長方形 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1673,7 +1691,7 @@
           <xdr:cNvPr id="40" name="図 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1714,7 +1732,7 @@
           <xdr:cNvPr id="41" name="図 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1770,7 +1788,7 @@
         <xdr:cNvPr id="42" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1854,7 @@
         <xdr:cNvPr id="43" name="グループ化 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,8 +1862,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18201154" y="5441016"/>
-          <a:ext cx="7875046" cy="4070985"/>
+          <a:off x="17976396" y="5286375"/>
+          <a:ext cx="7771312" cy="3956685"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1855,7 +1873,7 @@
           <xdr:cNvPr id="44" name="正方形/長方形 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1908,7 +1926,7 @@
           <xdr:cNvPr id="45" name="正方形/長方形 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1959,7 +1977,7 @@
           <xdr:cNvPr id="46" name="正方形/長方形 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2010,7 +2028,7 @@
           <xdr:cNvPr id="47" name="正方形/長方形 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2064,7 +2082,7 @@
           <xdr:cNvPr id="48" name="図 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2105,7 +2123,7 @@
           <xdr:cNvPr id="49" name="図 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2161,7 +2179,7 @@
         <xdr:cNvPr id="50" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F920C273-4E2F-329A-268B-1628529F11C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2245,7 @@
         <xdr:cNvPr id="51" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F920C273-4E2F-329A-268B-1628529F11C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2311,7 @@
         <xdr:cNvPr id="52" name="グループ化 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,8 +2319,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="10128437"/>
-          <a:ext cx="7881097" cy="4063034"/>
+          <a:off x="238125" y="9839325"/>
+          <a:ext cx="7786007" cy="3948734"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -2312,7 +2330,7 @@
           <xdr:cNvPr id="53" name="正方形/長方形 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2365,7 +2383,7 @@
           <xdr:cNvPr id="54" name="正方形/長方形 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2416,7 +2434,7 @@
           <xdr:cNvPr id="55" name="正方形/長方形 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2424,7 +2442,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5390096" y="2287360"/>
+            <a:off x="5390096" y="2348782"/>
             <a:ext cx="2588044" cy="1686050"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2467,7 +2485,7 @@
           <xdr:cNvPr id="56" name="正方形/長方形 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2521,7 +2539,7 @@
           <xdr:cNvPr id="57" name="図 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2562,7 +2580,7 @@
           <xdr:cNvPr id="58" name="図 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2589,7 +2607,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7010400" y="1327240"/>
+            <a:off x="7010400" y="1423760"/>
             <a:ext cx="869439" cy="1080548"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2618,7 +2636,7 @@
         <xdr:cNvPr id="64" name="グループ化 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,8 +2644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9238690" y="10112188"/>
-          <a:ext cx="7878856" cy="4060233"/>
+          <a:off x="9126311" y="9829800"/>
+          <a:ext cx="7775121" cy="3939209"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -2637,7 +2655,7 @@
           <xdr:cNvPr id="65" name="正方形/長方形 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2690,7 +2708,7 @@
           <xdr:cNvPr id="66" name="正方形/長方形 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2741,7 +2759,7 @@
           <xdr:cNvPr id="67" name="正方形/長方形 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2792,7 +2810,7 @@
           <xdr:cNvPr id="68" name="正方形/長方形 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2846,7 +2864,7 @@
           <xdr:cNvPr id="69" name="図 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2887,7 +2905,7 @@
           <xdr:cNvPr id="70" name="図 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2927,7 +2945,7 @@
           <xdr:cNvPr id="72" name="正方形/長方形 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2997,7 +3015,7 @@
         <xdr:cNvPr id="71" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3081,7 @@
         <xdr:cNvPr id="73" name="グループ化 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,8 +3089,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18220204" y="10118912"/>
-          <a:ext cx="7878856" cy="4063034"/>
+          <a:off x="17995446" y="9829800"/>
+          <a:ext cx="7775122" cy="3948734"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3082,7 +3100,7 @@
           <xdr:cNvPr id="74" name="正方形/長方形 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3135,7 +3153,7 @@
           <xdr:cNvPr id="75" name="正方形/長方形 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3186,7 +3204,7 @@
           <xdr:cNvPr id="76" name="正方形/長方形 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3237,7 +3255,7 @@
           <xdr:cNvPr id="77" name="正方形/長方形 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3291,7 +3309,7 @@
           <xdr:cNvPr id="78" name="図 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3332,7 +3350,7 @@
           <xdr:cNvPr id="79" name="図 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3372,7 +3390,7 @@
           <xdr:cNvPr id="80" name="正方形/長方形 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3442,7 +3460,7 @@
         <xdr:cNvPr id="81" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F920C273-4E2F-329A-268B-1628529F11C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3526,7 @@
         <xdr:cNvPr id="82" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3592,7 @@
         <xdr:cNvPr id="83" name="グループ化 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,8 +3600,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257175" y="14762649"/>
-          <a:ext cx="7877287" cy="4182917"/>
+          <a:off x="257175" y="14345790"/>
+          <a:ext cx="7782197" cy="4061894"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -3593,7 +3611,7 @@
           <xdr:cNvPr id="84" name="正方形/長方形 83">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3646,7 +3664,7 @@
           <xdr:cNvPr id="85" name="正方形/長方形 84">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3697,7 +3715,7 @@
           <xdr:cNvPr id="86" name="正方形/長方形 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3748,7 +3766,7 @@
           <xdr:cNvPr id="87" name="正方形/長方形 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3802,7 +3820,7 @@
           <xdr:cNvPr id="88" name="図 87">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3843,7 +3861,7 @@
           <xdr:cNvPr id="89" name="図 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3899,7 +3917,7 @@
         <xdr:cNvPr id="90" name="グループ化 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,8 +3925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="247650" y="19224271"/>
-          <a:ext cx="7877287" cy="4182917"/>
+          <a:off x="247650" y="18679665"/>
+          <a:ext cx="7782197" cy="4061894"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -3918,7 +3936,7 @@
           <xdr:cNvPr id="91" name="正方形/長方形 90">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3971,7 +3989,7 @@
           <xdr:cNvPr id="92" name="正方形/長方形 91">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4022,7 +4040,7 @@
           <xdr:cNvPr id="93" name="正方形/長方形 92">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4073,7 +4091,7 @@
           <xdr:cNvPr id="94" name="正方形/長方形 93">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4127,7 +4145,7 @@
           <xdr:cNvPr id="95" name="図 94">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4168,7 +4186,7 @@
           <xdr:cNvPr id="96" name="図 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4224,7 +4242,7 @@
         <xdr:cNvPr id="98" name="グループ化 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4232,8 +4250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9219640" y="14800749"/>
-          <a:ext cx="7875046" cy="4182917"/>
+          <a:off x="9107261" y="14383890"/>
+          <a:ext cx="7771311" cy="4061894"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4243,7 +4261,7 @@
           <xdr:cNvPr id="99" name="正方形/長方形 98">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4296,7 +4314,7 @@
           <xdr:cNvPr id="100" name="正方形/長方形 99">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4347,7 +4365,7 @@
           <xdr:cNvPr id="101" name="正方形/長方形 100">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4398,7 +4416,7 @@
           <xdr:cNvPr id="102" name="正方形/長方形 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4452,7 +4470,7 @@
           <xdr:cNvPr id="103" name="図 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4493,7 +4511,7 @@
           <xdr:cNvPr id="104" name="図 103">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4533,7 +4551,7 @@
           <xdr:cNvPr id="105" name="正方形/長方形 104">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4603,7 +4621,7 @@
         <xdr:cNvPr id="106" name="グループ化 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4611,8 +4629,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9219640" y="19167121"/>
-          <a:ext cx="7875046" cy="4182917"/>
+          <a:off x="9107261" y="18622515"/>
+          <a:ext cx="7771311" cy="4061894"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4622,7 +4640,7 @@
           <xdr:cNvPr id="107" name="正方形/長方形 106">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4675,7 +4693,7 @@
           <xdr:cNvPr id="108" name="正方形/長方形 107">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4726,7 +4744,7 @@
           <xdr:cNvPr id="109" name="正方形/長方形 108">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4777,7 +4795,7 @@
           <xdr:cNvPr id="110" name="正方形/長方形 109">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4831,7 +4849,7 @@
           <xdr:cNvPr id="111" name="図 110">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4872,7 +4890,7 @@
           <xdr:cNvPr id="112" name="図 111">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4912,7 +4930,7 @@
           <xdr:cNvPr id="113" name="正方形/長方形 112">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4982,7 +5000,7 @@
         <xdr:cNvPr id="114" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5048,7 +5066,7 @@
         <xdr:cNvPr id="115" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5111,7 +5129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="正方形/長方形 115"/>
+        <xdr:cNvPr id="116" name="正方形/長方形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5171,7 +5195,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="角丸四角形 116"/>
+        <xdr:cNvPr id="117" name="角丸四角形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5231,7 +5261,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="角丸四角形 117"/>
+        <xdr:cNvPr id="118" name="角丸四角形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5293,7 +5329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="正方形/長方形 118"/>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5353,7 +5395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="角丸四角形 119"/>
+        <xdr:cNvPr id="120" name="角丸四角形 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5413,7 +5461,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="角丸四角形 120"/>
+        <xdr:cNvPr id="121" name="角丸四角形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5475,7 +5529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5535,7 +5595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="角丸四角形 122"/>
+        <xdr:cNvPr id="123" name="角丸四角形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5595,7 +5661,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="角丸四角形 123"/>
+        <xdr:cNvPr id="124" name="角丸四角形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5657,7 +5729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5717,7 +5795,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="角丸四角形 125"/>
+        <xdr:cNvPr id="126" name="角丸四角形 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5777,7 +5861,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="角丸四角形 126"/>
+        <xdr:cNvPr id="127" name="角丸四角形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5839,7 +5929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="四角形吹き出し 127"/>
+        <xdr:cNvPr id="128" name="四角形吹き出し 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5932,7 +6028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="四角形吹き出し 128"/>
+        <xdr:cNvPr id="129" name="四角形吹き出し 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6009,7 +6111,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="四角形吹き出し 129"/>
+        <xdr:cNvPr id="130" name="四角形吹き出し 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6086,13 +6194,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="四角形吹き出し 130"/>
+        <xdr:cNvPr id="131" name="四角形吹き出し 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11458575" y="12411075"/>
-          <a:ext cx="2914650" cy="1028700"/>
+          <a:off x="11243422" y="12148857"/>
+          <a:ext cx="2860862" cy="1008530"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -6179,7 +6293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="四角形吹き出し 131"/>
+        <xdr:cNvPr id="132" name="四角形吹き出し 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6328,7 +6448,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="正方形/長方形 132"/>
+        <xdr:cNvPr id="133" name="正方形/長方形 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6680,7 +6806,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="正方形/長方形 133"/>
+        <xdr:cNvPr id="134" name="正方形/長方形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6757,7 +6889,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+        <xdr:cNvPr id="135" name="正方形/長方形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6834,7 +6972,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+        <xdr:cNvPr id="136" name="正方形/長方形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6911,7 +7055,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvPr id="138" name="正方形/長方形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6988,7 +7138,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="四角形吹き出し 138"/>
+        <xdr:cNvPr id="139" name="四角形吹き出し 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7089,7 +7245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="四角形吹き出し 139"/>
+        <xdr:cNvPr id="140" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7190,7 +7352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="四角形吹き出し 140"/>
+        <xdr:cNvPr id="141" name="四角形吹き出し 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7291,7 +7459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="四角形吹き出し 142"/>
+        <xdr:cNvPr id="143" name="四角形吹き出し 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7392,7 +7566,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+        <xdr:cNvPr id="145" name="正方形/長方形 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7466,6 +7646,2737 @@
             <a:t>ページの切り替えが可能</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174251</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>218515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162634</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>44056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B34BC7B-A209-48B9-BF96-610B3C8EB7AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242486" y="26323739"/>
+          <a:ext cx="660736" cy="291705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>618116</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>79450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="148" name="グループ化 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD924D53-6407-914A-BB97-62150985D26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="259976" y="24011965"/>
+          <a:ext cx="7782197" cy="3956685"/>
+          <a:chOff x="259976" y="24482612"/>
+          <a:chExt cx="7754022" cy="4032885"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="グループ化 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D2A79-4B24-4341-875D-E6178C90586B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="259976" y="24482612"/>
+            <a:ext cx="7754022" cy="4032885"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="正方形/長方形 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC23AA0-B64E-88C0-F1D5-15A7EE5F66D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="正方形/長方形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7348657E-74E0-281C-3A99-1CF20E4CC938}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2711807" y="3977640"/>
+              <a:ext cx="1159859" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="正方形/長方形 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D1532-F7D2-B81C-D2D4-88A60ECADD7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5390096" y="3985260"/>
+              <a:ext cx="2588044" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F8488-B1E0-F2DD-F7D4-51AA8EDCAA5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3840339" y="2504364"/>
+              <a:ext cx="1464620" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="図 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2887840" y="3019828"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="図 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="正方形/長方形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C1F0A-A0F4-40E1-A873-532CF5F31428}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="259976" y="25479155"/>
+            <a:ext cx="1120589" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="正方形/長方形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE0211-2090-466C-9CB1-F4DA8B7ACE57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3097496" y="25504870"/>
+            <a:ext cx="2594643" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="61" name="図 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CFCF36-FF0A-4268-826D-8E115815AC4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="472319" y="24482612"/>
+            <a:ext cx="746019" cy="1105866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="62" name="図 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A067165A-ADD2-4652-82E2-B14D98890F77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId4">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="23475"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4650213" y="24541829"/>
+            <a:ext cx="871656" cy="1104016"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62304</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>97380</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="149" name="グループ化 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22732A-2943-4B45-914C-5E6AB551F287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9150404" y="24029895"/>
+          <a:ext cx="7784757" cy="3956685"/>
+          <a:chOff x="259976" y="24482612"/>
+          <a:chExt cx="7754022" cy="4032885"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="150" name="グループ化 149">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF343E07-9F33-2B73-DFCB-77AFD0A287FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="259976" y="24482612"/>
+            <a:ext cx="7754022" cy="4032885"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="155" name="正方形/長方形 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FE17CA-2F8D-2BBF-A793-D511DC2CB957}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="156" name="正方形/長方形 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898005E-69AA-E4D7-58BB-1F30B2409B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2711807" y="3977640"/>
+              <a:ext cx="1159859" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="157" name="正方形/長方形 156">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F70240A-0607-9C9F-E5CA-27D2DF5B5BD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5390096" y="3985260"/>
+              <a:ext cx="2588044" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="158" name="正方形/長方形 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F196A0D-4A00-502D-5BFF-05830EF45805}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3840339" y="2504364"/>
+              <a:ext cx="1464620" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="159" name="図 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCE79D3-0948-DDCA-FB4F-AA54A35BC91C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4202300" y="3054925"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="160" name="図 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F4EB1F-BF32-687F-F5D6-E7FD4FAF9492}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="162" name="正方形/長方形 161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46E8986-376A-6298-E83C-4E96686F2D31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3911875" y="3987194"/>
+              <a:ext cx="1464620" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="163" name="正方形/長方形 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9C0B43-65E4-1209-27C2-6A928CEAF465}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1479677" y="1583077"/>
+              <a:ext cx="1464620" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="正方形/長方形 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9D7C39-AD2F-3C0E-5A0E-6BC3109371B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="259976" y="25479155"/>
+            <a:ext cx="1120589" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="正方形/長方形 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91978C5A-C4B8-BE4A-D41D-D84B41363392}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3097496" y="25504870"/>
+            <a:ext cx="2594643" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="153" name="図 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CE78A-A25F-E759-8807-B7A98EAB3675}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1825990" y="24527435"/>
+            <a:ext cx="746019" cy="1105866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="154" name="図 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4CD5B-BF66-F01F-A6F1-B51B629098DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId4">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="23475"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4650213" y="24541829"/>
+            <a:ext cx="871656" cy="1104016"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>430306</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>183776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E045D835-1C22-4ADC-8DA8-061AC1771D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5809130" y="24581223"/>
+          <a:ext cx="2967317" cy="1008529"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71070"/>
+            <a:gd name="adj2" fmla="val 8888"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>人をそれぞれゴールさせる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移動はマウスクリックに従う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>219634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442FE110-1BDD-7D52-6B51-A3FF2309842E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14827624" y="28346399"/>
+          <a:ext cx="2967317" cy="1008529"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73185"/>
+            <a:gd name="adj2" fmla="val -48001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>人とも通れるように</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>それぞれ道を作る必要がある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>116544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>143713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E3B7F5-1DF4-454C-9EA6-F9B6B4B2E23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="12640098" y="27369388"/>
+          <a:ext cx="726416" cy="295834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34561</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>175106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561602</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>4775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640A3948-8BB7-4125-8FCF-A80A9D261DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1622917" flipH="1" flipV="1">
+          <a:off x="11464561" y="26047247"/>
+          <a:ext cx="1199394" cy="295834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259978</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608482</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>75419</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="169" name="グループ化 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C76D0AE-798E-4D1E-974F-6CBD609D125F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="259978" y="29507328"/>
+          <a:ext cx="7772561" cy="3943691"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7738029" cy="3939540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="正方形/長方形 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9507AB76-2AE7-0078-FAE5-58E5EA803A65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="586740"/>
+            <a:ext cx="7734300" cy="3939540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="正方形/長方形 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEF5B4F-0059-48A8-3678-81E75BBB56F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="3977640"/>
+            <a:ext cx="7738029" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="正方形/長方形 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663842B1-ADE2-D868-40CE-E41F9F33FA51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2810381" y="2124206"/>
+            <a:ext cx="2588044" cy="707087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="173" name="正方形/長方形 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921058D3-A0C7-66A8-FF66-915B5EA6A9CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2179535" y="2810021"/>
+            <a:ext cx="645476" cy="594917"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="174" name="図 173">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D823C44-5E9E-C0F2-9A1F-CE8E767E24B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="723900" y="3002280"/>
+            <a:ext cx="744122" cy="1082359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="175" name="図 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC80CB4-840C-B945-33AD-4D2EA408CA68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId4">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="23475"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4161963" y="1177886"/>
+            <a:ext cx="869439" cy="1080548"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="176" name="正方形/長方形 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A2551B-0E8D-19B7-3D16-7FEE03C7A376}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1545576" y="3385116"/>
+            <a:ext cx="645476" cy="594917"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>483435</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>116539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>621254</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>8961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="図 177" descr="炎、火のイラスト | 商用OKの無料イラスト素材サイト ツカッテ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADD9F16-FB2B-CABA-EFE8-9723CC9D3692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3172847" y="30883410"/>
+          <a:ext cx="810172" cy="824751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286872</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>635375</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>57490</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="187" name="グループ化 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AB119A-BD7E-13F5-DC00-EAE43C76D594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9060758" y="29489399"/>
+          <a:ext cx="7772560" cy="3943691"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7738029" cy="3939540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="正方形/長方形 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903C3776-B104-1908-1718-B9BD95736334}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="586740"/>
+            <a:ext cx="7734300" cy="3939540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="189" name="正方形/長方形 188">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6089A78-2281-241B-2E26-9D08DDE2EA90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="3977640"/>
+            <a:ext cx="7738029" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="正方形/長方形 189">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02243EF1-A7B6-DAF4-1706-1BD37D8C5F9A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2810381" y="2124206"/>
+            <a:ext cx="2588044" cy="707087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="正方形/長方形 190">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027B29AC-C5D6-96F1-2450-F53E90C54649}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5386265" y="2818806"/>
+            <a:ext cx="645476" cy="594917"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="192" name="図 191">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000B5518-F695-4E03-AB82-A6BF9C43174E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6949256" y="3028636"/>
+            <a:ext cx="744122" cy="1082359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="193" name="図 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47724816-7A32-A81F-CC1E-0D02FA502204}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId4">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="23475"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4161963" y="1177886"/>
+            <a:ext cx="869439" cy="1080548"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="正方形/長方形 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C57948C-ED80-EDAC-7C97-B284A19465A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6015292" y="3393901"/>
+            <a:ext cx="645476" cy="594917"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>528258</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666077</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>215149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="195" name="図 194" descr="炎、火のイラスト | 商用OKの無料イラスト素材サイト ツカッテ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7E4465-0241-B39C-9731-A414B388FC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11958258" y="30856516"/>
+          <a:ext cx="810172" cy="824751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111498</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>164727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99881</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>223350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2B0A5E-F130-4D72-9CA0-9DB9514D0C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8179733" y="31863927"/>
+          <a:ext cx="660736" cy="291705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C21213E-AFF0-540D-1399-1A527EF3A03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3666565" y="31959177"/>
+          <a:ext cx="2967317" cy="1008529"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46296"/>
+            <a:gd name="adj2" fmla="val -91556"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>触れてはいけないものがある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今は仮で火を置いている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>85163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76420DF5-3878-494A-87B3-F772763751A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13133295" y="33805905"/>
+          <a:ext cx="2967317" cy="1008529"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40411"/>
+            <a:gd name="adj2" fmla="val -94223"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>左からはいけないので</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>右から上る必要がある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -7740,36 +10651,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85873731-F064-4DFF-AE20-EFAEB01681D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E732233-FB35-4B63-9AEE-49AA521878CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゴールさせてはいけないものがあるステージ</t>
+    <t>触れてはいけないものがあるステージ</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E732233-FB35-4B63-9AEE-49AA521878CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="ステージ" sheetId="1" r:id="rId1"/>
@@ -113,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,8 +231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="628650"/>
-          <a:ext cx="7782197" cy="3947160"/>
+          <a:off x="190500" y="661307"/>
+          <a:ext cx="7842069" cy="4241074"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -623,8 +622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9069161" y="609600"/>
-          <a:ext cx="7782197" cy="3956685"/>
+          <a:off x="9139918" y="642257"/>
+          <a:ext cx="7842068" cy="4234271"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1083,8 +1082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209550" y="5276850"/>
-          <a:ext cx="7782197" cy="3956685"/>
+          <a:off x="209550" y="5652407"/>
+          <a:ext cx="7842069" cy="4234271"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1474,8 +1473,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9126311" y="5286375"/>
-          <a:ext cx="7771311" cy="3956685"/>
+          <a:off x="9197068" y="5661932"/>
+          <a:ext cx="7836626" cy="4234271"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1865,8 +1864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17976396" y="5286375"/>
-          <a:ext cx="7771312" cy="3956685"/>
+          <a:off x="18117911" y="5661932"/>
+          <a:ext cx="7836625" cy="4234271"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -2322,8 +2321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="9839325"/>
-          <a:ext cx="7786007" cy="3948734"/>
+          <a:off x="238125" y="10541454"/>
+          <a:ext cx="7845879" cy="4226319"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -2647,8 +2646,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9126311" y="9829800"/>
-          <a:ext cx="7775121" cy="3939209"/>
+          <a:off x="9197068" y="10515600"/>
+          <a:ext cx="7840436" cy="4233123"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3092,8 +3091,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17995446" y="9829800"/>
-          <a:ext cx="7775122" cy="3948734"/>
+          <a:off x="18136961" y="10531929"/>
+          <a:ext cx="7840435" cy="4226319"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3603,8 +3602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257175" y="14345790"/>
-          <a:ext cx="7782197" cy="4061894"/>
+          <a:off x="257175" y="15358161"/>
+          <a:ext cx="7842069" cy="4355809"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -3928,8 +3927,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="247650" y="18679665"/>
-          <a:ext cx="7782197" cy="4061894"/>
+          <a:off x="247650" y="20002279"/>
+          <a:ext cx="7842069" cy="4355809"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4253,8 +4252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9107261" y="14383890"/>
-          <a:ext cx="7771311" cy="4061894"/>
+          <a:off x="9178018" y="15396261"/>
+          <a:ext cx="7836626" cy="4355809"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4632,8 +4631,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9107261" y="18622515"/>
-          <a:ext cx="7771311" cy="4061894"/>
+          <a:off x="9178018" y="19945129"/>
+          <a:ext cx="7836626" cy="4355809"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -7750,8 +7749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259976" y="24011965"/>
-          <a:ext cx="7782197" cy="3956685"/>
+          <a:off x="259976" y="25726465"/>
+          <a:ext cx="7842069" cy="4234271"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -8278,8 +8277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9150404" y="24029895"/>
-          <a:ext cx="7784757" cy="3956685"/>
+          <a:off x="9221161" y="25744395"/>
+          <a:ext cx="7850072" cy="4234271"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -9260,8 +9259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259978" y="29507328"/>
-          <a:ext cx="7772561" cy="3943691"/>
+          <a:off x="259978" y="31613714"/>
+          <a:ext cx="7832433" cy="4221276"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -9700,8 +9699,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9060758" y="29489399"/>
-          <a:ext cx="7772560" cy="3943691"/>
+          <a:off x="9131515" y="31595785"/>
+          <a:ext cx="7832431" cy="4221276"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -10654,44 +10653,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>6</v>
       </c>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -173,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +184,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,8 +234,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="661307"/>
-          <a:ext cx="7842069" cy="4241074"/>
+          <a:off x="190500" y="642097"/>
+          <a:ext cx="7877287" cy="4068184"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -622,8 +625,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9139918" y="642257"/>
-          <a:ext cx="7842068" cy="4234271"/>
+          <a:off x="9181540" y="623047"/>
+          <a:ext cx="7877287" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1082,8 +1085,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209550" y="5652407"/>
-          <a:ext cx="7842069" cy="4234271"/>
+          <a:off x="209550" y="5431491"/>
+          <a:ext cx="7877287" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1473,8 +1476,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9197068" y="5661932"/>
-          <a:ext cx="7836626" cy="4234271"/>
+          <a:off x="9238690" y="5441016"/>
+          <a:ext cx="7875046" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1864,8 +1867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18117911" y="5661932"/>
-          <a:ext cx="7836625" cy="4234271"/>
+          <a:off x="18201154" y="5441016"/>
+          <a:ext cx="7875046" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -2321,8 +2324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="10541454"/>
-          <a:ext cx="7845879" cy="4226319"/>
+          <a:off x="238125" y="10128437"/>
+          <a:ext cx="7881097" cy="4063034"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -2646,8 +2649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9197068" y="10515600"/>
-          <a:ext cx="7840436" cy="4233123"/>
+          <a:off x="9238690" y="10112188"/>
+          <a:ext cx="7878856" cy="4060233"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3091,8 +3094,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18136961" y="10531929"/>
-          <a:ext cx="7840435" cy="4226319"/>
+          <a:off x="18220204" y="10118912"/>
+          <a:ext cx="7878856" cy="4063034"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3602,8 +3605,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257175" y="15358161"/>
-          <a:ext cx="7842069" cy="4355809"/>
+          <a:off x="257175" y="14762649"/>
+          <a:ext cx="7877287" cy="4182917"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -3927,8 +3930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="247650" y="20002279"/>
-          <a:ext cx="7842069" cy="4355809"/>
+          <a:off x="247650" y="19224271"/>
+          <a:ext cx="7877287" cy="4182917"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4252,8 +4255,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9178018" y="15396261"/>
-          <a:ext cx="7836626" cy="4355809"/>
+          <a:off x="9219640" y="14800749"/>
+          <a:ext cx="7875046" cy="4182917"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4631,8 +4634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9178018" y="19945129"/>
-          <a:ext cx="7836626" cy="4355809"/>
+          <a:off x="9219640" y="19167121"/>
+          <a:ext cx="7875046" cy="4182917"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -7749,8 +7752,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259976" y="25726465"/>
-          <a:ext cx="7842069" cy="4234271"/>
+          <a:off x="259976" y="24717936"/>
+          <a:ext cx="7877287" cy="4070985"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -8277,8 +8280,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9221161" y="25744395"/>
-          <a:ext cx="7850072" cy="4234271"/>
+          <a:off x="9262783" y="24735866"/>
+          <a:ext cx="7888492" cy="4070985"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -9259,8 +9262,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259978" y="31613714"/>
-          <a:ext cx="7832433" cy="4221276"/>
+          <a:off x="259978" y="30374663"/>
+          <a:ext cx="7867651" cy="4057991"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -9699,8 +9702,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9131515" y="31595785"/>
-          <a:ext cx="7832431" cy="4221276"/>
+          <a:off x="9173137" y="30356734"/>
+          <a:ext cx="7867650" cy="4057991"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -10654,9 +10657,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -10695,6 +10698,7 @@
         <v>6</v>
       </c>
     </row>
+    <row r="151" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>【</t>
@@ -105,6 +105,13 @@
     <t>触れてはいけないものがあるステージ</t>
     <rPh sb="0" eb="1">
       <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作対象が複数体かつ、ページが分かれているステージ</t>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9240,13 +9247,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>259978</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>608482</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>75419</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9262,7 +9269,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259978" y="30374663"/>
+          <a:off x="259978" y="35787104"/>
           <a:ext cx="7867651" cy="4057991"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
@@ -9619,13 +9626,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>483435</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>116539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>621254</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>8961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9680,13 +9687,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>286872</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>635375</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>57490</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9702,7 +9709,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9173137" y="30356734"/>
+          <a:off x="9173137" y="35769175"/>
           <a:ext cx="7867650" cy="4057991"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
@@ -10059,14 +10066,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>528258</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>89645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>666077</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>215149</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>215148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10120,13 +10127,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>111498</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>164727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>99881</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>223350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10186,13 +10193,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10296,13 +10303,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>636494</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>85163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10389,6 +10396,2565 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>194982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>30145</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="207" name="グループ化 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD924D53-6407-914A-BB97-62150985D26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="266701" y="30316394"/>
+          <a:ext cx="7879974" cy="4070986"/>
+          <a:chOff x="259976" y="24482611"/>
+          <a:chExt cx="7756667" cy="4032886"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="208" name="グループ化 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D2A79-4B24-4341-875D-E6178C90586B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="259976" y="24482612"/>
+            <a:ext cx="7754022" cy="4032885"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="213" name="正方形/長方形 212">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC23AA0-B64E-88C0-F1D5-15A7EE5F66D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="214" name="正方形/長方形 213">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7348657E-74E0-281C-3A99-1CF20E4CC938}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2711807" y="3977640"/>
+              <a:ext cx="1159859" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="215" name="正方形/長方形 214">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D1532-F7D2-B81C-D2D4-88A60ECADD7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5390096" y="3985260"/>
+              <a:ext cx="2588044" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="216" name="正方形/長方形 215">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F8488-B1E0-F2DD-F7D4-51AA8EDCAA5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3840339" y="2504364"/>
+              <a:ext cx="1464620" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="217" name="図 216">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2887840" y="3019828"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="218" name="図 217">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="正方形/長方形 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C1F0A-A0F4-40E1-A873-532CF5F31428}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="259976" y="25479155"/>
+            <a:ext cx="2241403" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="210" name="正方形/長方形 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE0211-2090-466C-9CB1-F4DA8B7ACE57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4994747" y="25471567"/>
+            <a:ext cx="3021896" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="211" name="図 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CFCF36-FF0A-4268-826D-8E115815AC4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4972776" y="24482611"/>
+            <a:ext cx="746019" cy="1105866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159125</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>201708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>528470</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>48076</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="219" name="グループ化 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22732A-2943-4B45-914C-5E6AB551F287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8361831" y="30323120"/>
+          <a:ext cx="7888492" cy="4082191"/>
+          <a:chOff x="259976" y="24482612"/>
+          <a:chExt cx="7754022" cy="4043986"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="220" name="グループ化 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF343E07-9F33-2B73-DFCB-77AFD0A287FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="259976" y="24482612"/>
+            <a:ext cx="7754022" cy="4043986"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3958025"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="225" name="正方形/長方形 224">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FE17CA-2F8D-2BBF-A793-D511DC2CB957}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="226" name="正方形/長方形 225">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898005E-69AA-E4D7-58BB-1F30B2409B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2711807" y="3977640"/>
+              <a:ext cx="1159859" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="227" name="正方形/長方形 226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F70240A-0607-9C9F-E5CA-27D2DF5B5BD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5822959" y="3996125"/>
+              <a:ext cx="1122417" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="228" name="正方形/長方形 227">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F196A0D-4A00-502D-5BFF-05830EF45805}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3840339" y="2504364"/>
+              <a:ext cx="1464620" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="229" name="図 228">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCE79D3-0948-DDCA-FB4F-AA54A35BC91C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2905852" y="3065791"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="221" name="正方形/長方形 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9D7C39-AD2F-3C0E-5A0E-6BC3109371B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="259976" y="25479155"/>
+            <a:ext cx="1120589" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="222" name="正方形/長方形 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91978C5A-C4B8-BE4A-D41D-D84B41363392}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3097496" y="25504870"/>
+            <a:ext cx="2594643" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="223" name="図 222">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CE78A-A25F-E759-8807-B7A98EAB3675}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4811018" y="24527435"/>
+            <a:ext cx="746019" cy="1105866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="233" name="図 232">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4CD5B-BF66-F01F-A6F1-B51B629098DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId4">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="23475"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="449144" y="24515186"/>
+            <a:ext cx="871656" cy="1104016"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>616325</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>203947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>221878</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E045D835-1C22-4ADC-8DA8-061AC1771D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4717678" y="34090535"/>
+          <a:ext cx="3023347" cy="1017494"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35305"/>
+            <a:gd name="adj2" fmla="val -97940"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ページにゴールが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>つ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ページを確認しながら進む</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>374277</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>51546</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>59280</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="235" name="グループ化 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD924D53-6407-914A-BB97-62150985D26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17463248" y="30345529"/>
+          <a:ext cx="7879974" cy="4070986"/>
+          <a:chOff x="259976" y="24482611"/>
+          <a:chExt cx="7756667" cy="4032886"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="236" name="グループ化 235">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D2A79-4B24-4341-875D-E6178C90586B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="259976" y="24482612"/>
+            <a:ext cx="7754022" cy="4032885"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="240" name="正方形/長方形 239">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC23AA0-B64E-88C0-F1D5-15A7EE5F66D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="241" name="正方形/長方形 240">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7348657E-74E0-281C-3A99-1CF20E4CC938}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2711807" y="3977640"/>
+              <a:ext cx="1159859" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="242" name="正方形/長方形 241">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D1532-F7D2-B81C-D2D4-88A60ECADD7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5390096" y="3985260"/>
+              <a:ext cx="2588044" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="243" name="正方形/長方形 242">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F8488-B1E0-F2DD-F7D4-51AA8EDCAA5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3895351" y="4003739"/>
+              <a:ext cx="1464620" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="244" name="図 243">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6683694" y="3052424"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="245" name="図 244">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="237" name="正方形/長方形 236">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C1F0A-A0F4-40E1-A873-532CF5F31428}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="259976" y="25479155"/>
+            <a:ext cx="2241403" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="238" name="正方形/長方形 237">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE0211-2090-466C-9CB1-F4DA8B7ACE57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4994747" y="25471567"/>
+            <a:ext cx="3021896" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="239" name="図 238">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CFCF36-FF0A-4268-826D-8E115815AC4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6693539" y="24482611"/>
+            <a:ext cx="746019" cy="1105866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>266702</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>230843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>636046</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>77211</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="246" name="グループ化 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22732A-2943-4B45-914C-5E6AB551F287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="25558378" y="30352255"/>
+          <a:ext cx="7888492" cy="4082191"/>
+          <a:chOff x="259976" y="24482612"/>
+          <a:chExt cx="7754022" cy="4043986"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="247" name="グループ化 246">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF343E07-9F33-2B73-DFCB-77AFD0A287FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="259976" y="24482612"/>
+            <a:ext cx="7754022" cy="4043986"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3958025"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="252" name="正方形/長方形 251">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FE17CA-2F8D-2BBF-A793-D511DC2CB957}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="253" name="正方形/長方形 252">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898005E-69AA-E4D7-58BB-1F30B2409B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2711807" y="3977640"/>
+              <a:ext cx="1159859" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="254" name="正方形/長方形 253">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F70240A-0607-9C9F-E5CA-27D2DF5B5BD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5822959" y="3996125"/>
+              <a:ext cx="1122417" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="255" name="正方形/長方形 254">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F196A0D-4A00-502D-5BFF-05830EF45805}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1399656" y="1569970"/>
+              <a:ext cx="1626053" cy="519091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="248" name="正方形/長方形 247">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9D7C39-AD2F-3C0E-5A0E-6BC3109371B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="259976" y="25479155"/>
+            <a:ext cx="1120589" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="249" name="正方形/長方形 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91978C5A-C4B8-BE4A-D41D-D84B41363392}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086481" y="25471567"/>
+            <a:ext cx="2594643" cy="560555"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="250" name="図 249">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CE78A-A25F-E759-8807-B7A98EAB3675}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="757548" y="24516333"/>
+            <a:ext cx="746019" cy="1105866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="251" name="図 250">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4CD5B-BF66-F01F-A6F1-B51B629098DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId4">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="23475"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="327981" y="24515186"/>
+            <a:ext cx="871656" cy="1104016"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>381364</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>42580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640A3948-8BB7-4125-8FCF-A80A9D261DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1622917" flipH="1" flipV="1">
+          <a:off x="27880235" y="32216911"/>
+          <a:ext cx="1210600" cy="300316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91327</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>79710</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>73191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B34BC7B-A209-48B9-BF96-610B3C8EB7AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16496739" y="32251650"/>
+          <a:ext cx="671942" cy="296188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161364</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>71993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E3B7F5-1DF4-454C-9EA6-F9B6B4B2E23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="21520759" y="33208771"/>
+          <a:ext cx="733140" cy="295834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>636493</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>109818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442FE110-1BDD-7D52-6B51-A3FF2309842E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20092147" y="30412765"/>
+          <a:ext cx="3101787" cy="1230406"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 74136"/>
+            <a:gd name="adj2" fmla="val -21569"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>同時に動くのでこっちに来る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ページ目のここは足場がない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ので、元に戻す必要がある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>589429</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>273422</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>172569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="四角形吹き出し 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442FE110-1BDD-7D52-6B51-A3FF2309842E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29298900" y="34177940"/>
+          <a:ext cx="3101787" cy="822511"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62575"/>
+            <a:gd name="adj2" fmla="val -58909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>度ゴミ箱に入れば動かない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>151405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>130349</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>91101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="262" name="図 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32183294" y="32861376"/>
+          <a:ext cx="757879" cy="1116313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>388775</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>590729</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>61094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="263" name="図 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23475"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32516040" y="32833236"/>
+          <a:ext cx="885513" cy="1114446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10657,7 +13223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -10695,10 +13261,15 @@
     </row>
     <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="174" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="ステージ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <t>【</t>
@@ -112,6 +113,104 @@
     <t>操作対象が複数体かつ、ページが分かれているステージ</t>
     <rPh sb="15" eb="16">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの移動</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピペ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大縮小</t>
+    <rPh sb="0" eb="4">
+      <t>カクダイシュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コストを見て数を調整</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ切り替え</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウイルスが複数個</t>
+    <rPh sb="5" eb="8">
+      <t>フクスウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ切り替えとウイルスが複数個</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大縮小とコストを合わせる</t>
+    <rPh sb="0" eb="4">
+      <t>カクダイシュクショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時に動く</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれ速度が違う</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3590,8 +3689,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>172590</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>58491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -3612,10 +3711,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257175" y="14762649"/>
-          <a:ext cx="7877287" cy="4182917"/>
-          <a:chOff x="243840" y="469162"/>
-          <a:chExt cx="7734300" cy="4057118"/>
+          <a:off x="257175" y="14883873"/>
+          <a:ext cx="7877287" cy="4061693"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3686,57 +3785,6 @@
           <a:xfrm>
             <a:off x="243840" y="3977640"/>
             <a:ext cx="1687450" cy="548640"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="正方形/長方形 85">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6415617" y="1429282"/>
-            <a:ext cx="1562523" cy="548640"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3862,46 +3910,6 @@
           <a:xfrm>
             <a:off x="723900" y="3002280"/>
             <a:ext cx="744122" cy="1082359"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="89" name="図 88">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId4">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="23475"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7010400" y="469162"/>
-            <a:ext cx="869439" cy="1080548"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4240,8 +4248,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>210690</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>96591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
@@ -4262,10 +4270,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9219640" y="14800749"/>
-          <a:ext cx="7875046" cy="4182917"/>
-          <a:chOff x="243840" y="469162"/>
-          <a:chExt cx="7734300" cy="4057118"/>
+          <a:off x="9219640" y="14921973"/>
+          <a:ext cx="7875046" cy="4061693"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4336,57 +4344,6 @@
           <a:xfrm>
             <a:off x="243840" y="3977640"/>
             <a:ext cx="1687450" cy="548640"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="正方形/長方形 100">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6415617" y="1429282"/>
-            <a:ext cx="1562523" cy="548640"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4512,46 +4469,6 @@
           <a:xfrm>
             <a:off x="3847080" y="1678648"/>
             <a:ext cx="744122" cy="1082359"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="104" name="図 103">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId4">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="23475"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7010400" y="469162"/>
-            <a:ext cx="869439" cy="1080548"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -12957,6 +12874,529 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="256" name="グループ化 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17772529" y="616323"/>
+          <a:ext cx="7877287" cy="4068184"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7734300" cy="3947160"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="264" name="正方形/長方形 263">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="586740"/>
+            <a:ext cx="7734300" cy="3939540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="265" name="正方形/長方形 264">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="3977640"/>
+            <a:ext cx="2849880" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="266" name="正方形/長方形 265">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6053148" y="3985260"/>
+            <a:ext cx="1924992" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="267" name="正方形/長方形 266">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3139440" y="1104900"/>
+            <a:ext cx="2042160" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="268" name="図 267">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="723900" y="3002280"/>
+            <a:ext cx="744122" cy="1082359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="269" name="図 268">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId4">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="23475"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7010400" y="3025140"/>
+            <a:ext cx="869439" cy="1080548"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>369345</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="正方形/長方形 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20674852" y="2980764"/>
+          <a:ext cx="1568375" cy="565462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>394798</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16571518" flipH="1" flipV="1">
+          <a:off x="19693600" y="2686213"/>
+          <a:ext cx="2116375" cy="299550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>638187</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>254178</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15474420" flipH="1" flipV="1">
+          <a:off x="21649259" y="2615570"/>
+          <a:ext cx="2025169" cy="299550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13225,7 +13665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13276,4 +13716,75 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F7:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -13665,7 +13665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="ステージ" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="ステージ案" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -13665,7 +13665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13720,66 +13720,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:F29"/>
+  <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F7" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F12" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F15" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F16" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F19" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F23" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F24" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F27" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F28" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F29" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5319CA-138D-4C44-B0F2-9AB558D1247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ステージ" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <t>【</t>
@@ -214,11 +215,63 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1人はどちらでもいけるが、もう1人の為に残しておく</t>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4人同時</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上から下に落とす</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦通り越す</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,9 +343,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -340,8 +390,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="642097"/>
-          <a:ext cx="7877287" cy="4068184"/>
+          <a:off x="190500" y="637615"/>
+          <a:ext cx="7754022" cy="4027842"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -731,8 +781,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9181540" y="623047"/>
-          <a:ext cx="7877287" cy="4070985"/>
+          <a:off x="9035863" y="618565"/>
+          <a:ext cx="7754023" cy="4032885"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1191,8 +1241,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209550" y="5431491"/>
-          <a:ext cx="7877287" cy="4070985"/>
+          <a:off x="209550" y="5379944"/>
+          <a:ext cx="7754022" cy="4032885"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1582,8 +1632,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9238690" y="5441016"/>
-          <a:ext cx="7875046" cy="4070985"/>
+          <a:off x="9093013" y="5389469"/>
+          <a:ext cx="7740576" cy="4032885"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1973,8 +2023,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18201154" y="5441016"/>
-          <a:ext cx="7875046" cy="4070985"/>
+          <a:off x="17909801" y="5389469"/>
+          <a:ext cx="7740576" cy="4032885"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -2430,8 +2480,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="10128437"/>
-          <a:ext cx="7881097" cy="4063034"/>
+          <a:off x="238125" y="10032066"/>
+          <a:ext cx="7757832" cy="4024934"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -2755,8 +2805,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9238690" y="10112188"/>
-          <a:ext cx="7878856" cy="4060233"/>
+          <a:off x="9093013" y="10018059"/>
+          <a:ext cx="7744386" cy="4019891"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3200,8 +3250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18220204" y="10118912"/>
-          <a:ext cx="7878856" cy="4063034"/>
+          <a:off x="17928851" y="10022541"/>
+          <a:ext cx="7744386" cy="4024934"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3711,8 +3761,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257175" y="14883873"/>
-          <a:ext cx="7877287" cy="4061693"/>
+          <a:off x="257175" y="14742679"/>
+          <a:ext cx="7754022" cy="4023593"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -3945,8 +3995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="247650" y="19224271"/>
-          <a:ext cx="7877287" cy="4182917"/>
+          <a:off x="247650" y="19042736"/>
+          <a:ext cx="7754022" cy="4142576"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4270,8 +4320,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9219640" y="14921973"/>
-          <a:ext cx="7875046" cy="4061693"/>
+          <a:off x="9073963" y="14780779"/>
+          <a:ext cx="7740576" cy="4023593"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -4558,8 +4608,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9219640" y="19167121"/>
-          <a:ext cx="7875046" cy="4182917"/>
+          <a:off x="9073963" y="18985586"/>
+          <a:ext cx="7740576" cy="4142576"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -7602,7 +7652,7 @@
         <xdr:cNvPr id="34" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B34BC7B-A209-48B9-BF96-610B3C8EB7AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7668,7 +7718,7 @@
         <xdr:cNvPr id="148" name="グループ化 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD924D53-6407-914A-BB97-62150985D26F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7676,8 +7726,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259976" y="24717936"/>
-          <a:ext cx="7877287" cy="4070985"/>
+          <a:off x="259976" y="24482612"/>
+          <a:ext cx="7754022" cy="4032885"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -7687,7 +7737,7 @@
           <xdr:cNvPr id="10" name="グループ化 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D2A79-4B24-4341-875D-E6178C90586B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7706,7 +7756,7 @@
             <xdr:cNvPr id="11" name="正方形/長方形 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC23AA0-B64E-88C0-F1D5-15A7EE5F66D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7759,7 +7809,7 @@
             <xdr:cNvPr id="12" name="正方形/長方形 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7348657E-74E0-281C-3A99-1CF20E4CC938}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7810,7 +7860,7 @@
             <xdr:cNvPr id="13" name="正方形/長方形 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D1532-F7D2-B81C-D2D4-88A60ECADD7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7861,7 +7911,7 @@
             <xdr:cNvPr id="14" name="正方形/長方形 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F8488-B1E0-F2DD-F7D4-51AA8EDCAA5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7915,7 +7965,7 @@
             <xdr:cNvPr id="15" name="図 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7956,7 +8006,7 @@
             <xdr:cNvPr id="16" name="図 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7997,7 +8047,7 @@
           <xdr:cNvPr id="59" name="正方形/長方形 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C1F0A-A0F4-40E1-A873-532CF5F31428}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8048,7 +8098,7 @@
           <xdr:cNvPr id="60" name="正方形/長方形 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE0211-2090-466C-9CB1-F4DA8B7ACE57}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8099,7 +8149,7 @@
           <xdr:cNvPr id="61" name="図 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CFCF36-FF0A-4268-826D-8E115815AC4E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8140,7 +8190,7 @@
           <xdr:cNvPr id="62" name="図 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A067165A-ADD2-4652-82E2-B14D98890F77}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8196,7 +8246,7 @@
         <xdr:cNvPr id="149" name="グループ化 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22732A-2943-4B45-914C-5E6AB551F287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8204,8 +8254,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9262783" y="24735866"/>
-          <a:ext cx="7888492" cy="4070985"/>
+          <a:off x="9117106" y="24500542"/>
+          <a:ext cx="7754022" cy="4032885"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -8215,7 +8265,7 @@
           <xdr:cNvPr id="150" name="グループ化 149">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF343E07-9F33-2B73-DFCB-77AFD0A287FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8234,7 +8284,7 @@
             <xdr:cNvPr id="155" name="正方形/長方形 154">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FE17CA-2F8D-2BBF-A793-D511DC2CB957}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8287,7 +8337,7 @@
             <xdr:cNvPr id="156" name="正方形/長方形 155">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898005E-69AA-E4D7-58BB-1F30B2409B00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8338,7 +8388,7 @@
             <xdr:cNvPr id="157" name="正方形/長方形 156">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F70240A-0607-9C9F-E5CA-27D2DF5B5BD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8389,7 +8439,7 @@
             <xdr:cNvPr id="158" name="正方形/長方形 157">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F196A0D-4A00-502D-5BFF-05830EF45805}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8443,7 +8493,7 @@
             <xdr:cNvPr id="159" name="図 158">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCE79D3-0948-DDCA-FB4F-AA54A35BC91C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8484,7 +8534,7 @@
             <xdr:cNvPr id="160" name="図 159">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F4EB1F-BF32-687F-F5D6-E7FD4FAF9492}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8524,7 +8574,7 @@
             <xdr:cNvPr id="162" name="正方形/長方形 161">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46E8986-376A-6298-E83C-4E96686F2D31}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8578,7 +8628,7 @@
             <xdr:cNvPr id="163" name="正方形/長方形 162">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9C0B43-65E4-1209-27C2-6A928CEAF465}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8633,7 +8683,7 @@
           <xdr:cNvPr id="151" name="正方形/長方形 150">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9D7C39-AD2F-3C0E-5A0E-6BC3109371B5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8684,7 +8734,7 @@
           <xdr:cNvPr id="152" name="正方形/長方形 151">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91978C5A-C4B8-BE4A-D41D-D84B41363392}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8735,7 +8785,7 @@
           <xdr:cNvPr id="153" name="図 152">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CE78A-A25F-E759-8807-B7A98EAB3675}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8776,7 +8826,7 @@
           <xdr:cNvPr id="154" name="図 153">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4CD5B-BF66-F01F-A6F1-B51B629098DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8832,7 +8882,7 @@
         <xdr:cNvPr id="161" name="四角形吹き出し 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E045D835-1C22-4ADC-8DA8-061AC1771D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8939,7 +8989,7 @@
         <xdr:cNvPr id="164" name="四角形吹き出し 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442FE110-1BDD-7D52-6B51-A3FF2309842E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9046,7 +9096,7 @@
         <xdr:cNvPr id="165" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E3B7F5-1DF4-454C-9EA6-F9B6B4B2E23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9112,7 +9162,7 @@
         <xdr:cNvPr id="166" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640A3948-8BB7-4125-8FCF-A80A9D261DD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9178,7 +9228,7 @@
         <xdr:cNvPr id="169" name="グループ化 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C76D0AE-798E-4D1E-974F-6CBD609D125F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9186,8 +9236,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259978" y="35787104"/>
-          <a:ext cx="7867651" cy="4057991"/>
+          <a:off x="259978" y="35446446"/>
+          <a:ext cx="7744386" cy="4019891"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -9197,7 +9247,7 @@
           <xdr:cNvPr id="170" name="正方形/長方形 169">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9507AB76-2AE7-0078-FAE5-58E5EA803A65}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9250,7 +9300,7 @@
           <xdr:cNvPr id="171" name="正方形/長方形 170">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEF5B4F-0059-48A8-3678-81E75BBB56F9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9301,7 +9351,7 @@
           <xdr:cNvPr id="172" name="正方形/長方形 171">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663842B1-ADE2-D868-40CE-E41F9F33FA51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9352,7 +9402,7 @@
           <xdr:cNvPr id="173" name="正方形/長方形 172">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921058D3-A0C7-66A8-FF66-915B5EA6A9CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9406,7 +9456,7 @@
           <xdr:cNvPr id="174" name="図 173">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D823C44-5E9E-C0F2-9A1F-CE8E767E24B2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9447,7 +9497,7 @@
           <xdr:cNvPr id="175" name="図 174">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC80CB4-840C-B945-33AD-4D2EA408CA68}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9487,7 +9537,7 @@
           <xdr:cNvPr id="176" name="正方形/長方形 175">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A2551B-0E8D-19B7-3D16-7FEE03C7A376}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9557,7 +9607,7 @@
         <xdr:cNvPr id="178" name="図 177" descr="炎、火のイラスト | 商用OKの無料イラスト素材サイト ツカッテ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADD9F16-FB2B-CABA-EFE8-9723CC9D3692}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9618,7 +9668,7 @@
         <xdr:cNvPr id="187" name="グループ化 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AB119A-BD7E-13F5-DC00-EAE43C76D594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9626,8 +9676,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9173137" y="35769175"/>
-          <a:ext cx="7867650" cy="4057991"/>
+          <a:off x="9027460" y="35428517"/>
+          <a:ext cx="7744386" cy="4019891"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -9637,7 +9687,7 @@
           <xdr:cNvPr id="188" name="正方形/長方形 187">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903C3776-B104-1908-1718-B9BD95736334}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9690,7 +9740,7 @@
           <xdr:cNvPr id="189" name="正方形/長方形 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6089A78-2281-241B-2E26-9D08DDE2EA90}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9741,7 +9791,7 @@
           <xdr:cNvPr id="190" name="正方形/長方形 189">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02243EF1-A7B6-DAF4-1706-1BD37D8C5F9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9792,7 +9842,7 @@
           <xdr:cNvPr id="191" name="正方形/長方形 190">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027B29AC-C5D6-96F1-2450-F53E90C54649}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9846,7 +9896,7 @@
           <xdr:cNvPr id="192" name="図 191">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000B5518-F695-4E03-AB82-A6BF9C43174E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9887,7 +9937,7 @@
           <xdr:cNvPr id="193" name="図 192">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47724816-7A32-A81F-CC1E-0D02FA502204}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9927,7 +9977,7 @@
           <xdr:cNvPr id="194" name="正方形/長方形 193">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C57948C-ED80-EDAC-7C97-B284A19465A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9997,7 +10047,7 @@
         <xdr:cNvPr id="195" name="図 194" descr="炎、火のイラスト | 商用OKの無料イラスト素材サイト ツカッテ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7E4465-0241-B39C-9731-A414B388FC4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10058,7 +10108,7 @@
         <xdr:cNvPr id="196" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2B0A5E-F130-4D72-9CA0-9DB9514D0C06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10124,7 +10174,7 @@
         <xdr:cNvPr id="197" name="四角形吹き出し 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C21213E-AFF0-540D-1399-1A527EF3A03C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10234,7 +10284,7 @@
         <xdr:cNvPr id="199" name="四角形吹き出し 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76420DF5-3878-494A-87B3-F772763751A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10333,7 +10383,7 @@
         <xdr:cNvPr id="207" name="グループ化 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD924D53-6407-914A-BB97-62150985D26F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10341,8 +10391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266701" y="30316394"/>
-          <a:ext cx="7879974" cy="4070986"/>
+          <a:off x="266701" y="30029523"/>
+          <a:ext cx="7756709" cy="4030646"/>
           <a:chOff x="259976" y="24482611"/>
           <a:chExt cx="7756667" cy="4032886"/>
         </a:xfrm>
@@ -10352,7 +10402,7 @@
           <xdr:cNvPr id="208" name="グループ化 207">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D2A79-4B24-4341-875D-E6178C90586B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10371,7 +10421,7 @@
             <xdr:cNvPr id="213" name="正方形/長方形 212">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC23AA0-B64E-88C0-F1D5-15A7EE5F66D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10424,7 +10474,7 @@
             <xdr:cNvPr id="214" name="正方形/長方形 213">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7348657E-74E0-281C-3A99-1CF20E4CC938}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10475,7 +10525,7 @@
             <xdr:cNvPr id="215" name="正方形/長方形 214">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D1532-F7D2-B81C-D2D4-88A60ECADD7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10526,7 +10576,7 @@
             <xdr:cNvPr id="216" name="正方形/長方形 215">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F8488-B1E0-F2DD-F7D4-51AA8EDCAA5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10580,7 +10630,7 @@
             <xdr:cNvPr id="217" name="図 216">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10621,7 +10671,7 @@
             <xdr:cNvPr id="218" name="図 217">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10662,7 +10712,7 @@
           <xdr:cNvPr id="209" name="正方形/長方形 208">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C1F0A-A0F4-40E1-A873-532CF5F31428}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10713,7 +10763,7 @@
           <xdr:cNvPr id="210" name="正方形/長方形 209">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE0211-2090-466C-9CB1-F4DA8B7ACE57}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10764,7 +10814,7 @@
           <xdr:cNvPr id="211" name="図 210">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CFCF36-FF0A-4268-826D-8E115815AC4E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10821,7 +10871,7 @@
         <xdr:cNvPr id="219" name="グループ化 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22732A-2943-4B45-914C-5E6AB551F287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10829,8 +10879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8361831" y="30323120"/>
-          <a:ext cx="7888492" cy="4082191"/>
+          <a:off x="8227360" y="30036249"/>
+          <a:ext cx="7765228" cy="4041851"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4043986"/>
         </a:xfrm>
@@ -10840,7 +10890,7 @@
           <xdr:cNvPr id="220" name="グループ化 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF343E07-9F33-2B73-DFCB-77AFD0A287FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10859,7 +10909,7 @@
             <xdr:cNvPr id="225" name="正方形/長方形 224">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FE17CA-2F8D-2BBF-A793-D511DC2CB957}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10912,7 +10962,7 @@
             <xdr:cNvPr id="226" name="正方形/長方形 225">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898005E-69AA-E4D7-58BB-1F30B2409B00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10963,7 +11013,7 @@
             <xdr:cNvPr id="227" name="正方形/長方形 226">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F70240A-0607-9C9F-E5CA-27D2DF5B5BD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11014,7 +11064,7 @@
             <xdr:cNvPr id="228" name="正方形/長方形 227">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F196A0D-4A00-502D-5BFF-05830EF45805}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11068,7 +11118,7 @@
             <xdr:cNvPr id="229" name="図 228">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCE79D3-0948-DDCA-FB4F-AA54A35BC91C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11110,7 +11160,7 @@
           <xdr:cNvPr id="221" name="正方形/長方形 220">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9D7C39-AD2F-3C0E-5A0E-6BC3109371B5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11161,7 +11211,7 @@
           <xdr:cNvPr id="222" name="正方形/長方形 221">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91978C5A-C4B8-BE4A-D41D-D84B41363392}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11212,7 +11262,7 @@
           <xdr:cNvPr id="223" name="図 222">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CE78A-A25F-E759-8807-B7A98EAB3675}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11253,7 +11303,7 @@
           <xdr:cNvPr id="233" name="図 232">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4CD5B-BF66-F01F-A6F1-B51B629098DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11309,7 +11359,7 @@
         <xdr:cNvPr id="234" name="四角形吹き出し 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E045D835-1C22-4ADC-8DA8-061AC1771D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11432,7 +11482,7 @@
         <xdr:cNvPr id="235" name="グループ化 234">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD924D53-6407-914A-BB97-62150985D26F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11440,8 +11490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17463248" y="30345529"/>
-          <a:ext cx="7879974" cy="4070986"/>
+          <a:off x="17183101" y="30058658"/>
+          <a:ext cx="7745504" cy="4030646"/>
           <a:chOff x="259976" y="24482611"/>
           <a:chExt cx="7756667" cy="4032886"/>
         </a:xfrm>
@@ -11451,7 +11501,7 @@
           <xdr:cNvPr id="236" name="グループ化 235">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D2A79-4B24-4341-875D-E6178C90586B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11470,7 +11520,7 @@
             <xdr:cNvPr id="240" name="正方形/長方形 239">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC23AA0-B64E-88C0-F1D5-15A7EE5F66D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11523,7 +11573,7 @@
             <xdr:cNvPr id="241" name="正方形/長方形 240">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7348657E-74E0-281C-3A99-1CF20E4CC938}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11574,7 +11624,7 @@
             <xdr:cNvPr id="242" name="正方形/長方形 241">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D1532-F7D2-B81C-D2D4-88A60ECADD7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11625,7 +11675,7 @@
             <xdr:cNvPr id="243" name="正方形/長方形 242">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F8488-B1E0-F2DD-F7D4-51AA8EDCAA5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F3000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11679,7 +11729,7 @@
             <xdr:cNvPr id="244" name="図 243">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F4000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11720,7 +11770,7 @@
             <xdr:cNvPr id="245" name="図 244">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F5000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11761,7 +11811,7 @@
           <xdr:cNvPr id="237" name="正方形/長方形 236">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C1F0A-A0F4-40E1-A873-532CF5F31428}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11812,7 +11862,7 @@
           <xdr:cNvPr id="238" name="正方形/長方形 237">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE0211-2090-466C-9CB1-F4DA8B7ACE57}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11863,7 +11913,7 @@
           <xdr:cNvPr id="239" name="図 238">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CFCF36-FF0A-4268-826D-8E115815AC4E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11920,7 +11970,7 @@
         <xdr:cNvPr id="246" name="グループ化 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22732A-2943-4B45-914C-5E6AB551F287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11928,8 +11978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25558378" y="30352255"/>
-          <a:ext cx="7888492" cy="4082191"/>
+          <a:off x="25143761" y="30065384"/>
+          <a:ext cx="7765226" cy="4041851"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4043986"/>
         </a:xfrm>
@@ -11939,7 +11989,7 @@
           <xdr:cNvPr id="247" name="グループ化 246">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF343E07-9F33-2B73-DFCB-77AFD0A287FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11958,7 +12008,7 @@
             <xdr:cNvPr id="252" name="正方形/長方形 251">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FE17CA-2F8D-2BBF-A793-D511DC2CB957}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12011,7 +12061,7 @@
             <xdr:cNvPr id="253" name="正方形/長方形 252">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898005E-69AA-E4D7-58BB-1F30B2409B00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FD000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12062,7 +12112,7 @@
             <xdr:cNvPr id="254" name="正方形/長方形 253">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F70240A-0607-9C9F-E5CA-27D2DF5B5BD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FE000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12113,7 +12163,7 @@
             <xdr:cNvPr id="255" name="正方形/長方形 254">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F196A0D-4A00-502D-5BFF-05830EF45805}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12168,7 +12218,7 @@
           <xdr:cNvPr id="248" name="正方形/長方形 247">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9D7C39-AD2F-3C0E-5A0E-6BC3109371B5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12219,7 +12269,7 @@
           <xdr:cNvPr id="249" name="正方形/長方形 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91978C5A-C4B8-BE4A-D41D-D84B41363392}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12270,7 +12320,7 @@
           <xdr:cNvPr id="250" name="図 249">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CE78A-A25F-E759-8807-B7A98EAB3675}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12311,7 +12361,7 @@
           <xdr:cNvPr id="251" name="図 250">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4CD5B-BF66-F01F-A6F1-B51B629098DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12367,7 +12417,7 @@
         <xdr:cNvPr id="257" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640A3948-8BB7-4125-8FCF-A80A9D261DD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12433,7 +12483,7 @@
         <xdr:cNvPr id="258" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B34BC7B-A209-48B9-BF96-610B3C8EB7AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12499,7 +12549,7 @@
         <xdr:cNvPr id="259" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E3B7F5-1DF4-454C-9EA6-F9B6B4B2E23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12565,7 +12615,7 @@
         <xdr:cNvPr id="260" name="四角形吹き出し 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442FE110-1BDD-7D52-6B51-A3FF2309842E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12688,7 +12738,7 @@
         <xdr:cNvPr id="261" name="四角形吹き出し 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442FE110-1BDD-7D52-6B51-A3FF2309842E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12779,7 +12829,7 @@
         <xdr:cNvPr id="262" name="図 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E1C245-EDD6-9A83-60FB-ED53C090AB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12836,7 +12886,7 @@
         <xdr:cNvPr id="263" name="図 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3C99-9072-6473-0636-8AD9DF0F4282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12892,7 +12942,7 @@
         <xdr:cNvPr id="256" name="グループ化 255">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,8 +12950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17772529" y="616323"/>
-          <a:ext cx="7877287" cy="4068184"/>
+          <a:off x="17481176" y="611841"/>
+          <a:ext cx="7754023" cy="4030084"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -12911,7 +12961,7 @@
           <xdr:cNvPr id="264" name="正方形/長方形 263">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12964,7 +13014,7 @@
           <xdr:cNvPr id="265" name="正方形/長方形 264">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13015,7 +13065,7 @@
           <xdr:cNvPr id="266" name="正方形/長方形 265">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13066,7 +13116,7 @@
           <xdr:cNvPr id="267" name="正方形/長方形 266">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13120,7 +13170,7 @@
           <xdr:cNvPr id="268" name="図 267">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13161,7 +13211,7 @@
           <xdr:cNvPr id="269" name="図 268">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13217,7 +13267,7 @@
         <xdr:cNvPr id="270" name="正方形/長方形 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13283,7 +13333,7 @@
         <xdr:cNvPr id="273" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13349,7 +13399,7 @@
         <xdr:cNvPr id="274" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13662,54 +13712,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13719,64 +13769,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>18</v>
       </c>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5319CA-138D-4C44-B0F2-9AB558D1247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E410CBF1-DE28-4DA0-BE67-5CB4D958C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <r>
       <t>【</t>
@@ -264,6 +264,22 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページを切り替えればフォルダに当たらなくて済む</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13772,7 +13788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -13805,6 +13823,9 @@
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E410CBF1-DE28-4DA0-BE67-5CB4D958C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3427853-8B39-4893-9F2B-EA4E29B95748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ステージ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
       <t>【</t>
@@ -118,157 +118,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックの移動</t>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コピペ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡大縮小</t>
-    <rPh sb="0" eb="4">
-      <t>カクダイシュクショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コストを見て数を調整</t>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページ切り替え</t>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウイルスが複数個</t>
-    <rPh sb="5" eb="8">
-      <t>フクスウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページ切り替えとウイルスが複数個</t>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡大縮小とコストを合わせる</t>
-    <rPh sb="0" eb="4">
-      <t>カクダイシュクショウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チュートリアル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同時に動く</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それぞれ速度が違う</t>
-    <rPh sb="4" eb="6">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1人はどちらでもいけるが、もう1人の為に残しておく</t>
-    <rPh sb="1" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4人同時</t>
-    <rPh sb="1" eb="2">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上から下に落とす</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一旦通り越す</t>
-    <rPh sb="0" eb="2">
-      <t>イッタン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページを切り替えればフォルダに当たらなくて済む</t>
+    <t>ページを切り替えればフォルダに当たらなくて済むステージ</t>
     <rPh sb="4" eb="5">
       <t>キ</t>
     </rPh>
@@ -280,6 +130,16 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウイルスの速度がそれぞれ違う</t>
+    <rPh sb="5" eb="7">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13731,7 +13591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A174"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -13786,86 +13646,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3427853-8B39-4893-9F2B-EA4E29B95748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="ステージ" sheetId="1" r:id="rId1"/>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,8 +265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="637615"/>
-          <a:ext cx="7754022" cy="4027842"/>
+          <a:off x="190500" y="642097"/>
+          <a:ext cx="7877287" cy="4068184"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -657,8 +656,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9035863" y="618565"/>
-          <a:ext cx="7754023" cy="4032885"/>
+          <a:off x="9181540" y="623047"/>
+          <a:ext cx="7877287" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1117,8 +1116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209550" y="5379944"/>
-          <a:ext cx="7754022" cy="4032885"/>
+          <a:off x="209550" y="5431491"/>
+          <a:ext cx="7877287" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1508,8 +1507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9093013" y="5389469"/>
-          <a:ext cx="7740576" cy="4032885"/>
+          <a:off x="9238690" y="5441016"/>
+          <a:ext cx="7875046" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -1899,8 +1898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17909801" y="5389469"/>
-          <a:ext cx="7740576" cy="4032885"/>
+          <a:off x="18201154" y="5441016"/>
+          <a:ext cx="7875046" cy="4070985"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -2356,8 +2355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="10032066"/>
-          <a:ext cx="7757832" cy="4024934"/>
+          <a:off x="238125" y="10128437"/>
+          <a:ext cx="7881097" cy="4063034"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -2681,8 +2680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9093013" y="10018059"/>
-          <a:ext cx="7744386" cy="4019891"/>
+          <a:off x="9238690" y="10112188"/>
+          <a:ext cx="7878856" cy="4060233"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3126,8 +3125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17928851" y="10022541"/>
-          <a:ext cx="7744386" cy="4024934"/>
+          <a:off x="18220204" y="10118912"/>
+          <a:ext cx="7878856" cy="4063034"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -3637,8 +3636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257175" y="14742679"/>
-          <a:ext cx="7754022" cy="4023593"/>
+          <a:off x="257175" y="14883873"/>
+          <a:ext cx="7877287" cy="4061693"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -3871,8 +3870,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="247650" y="19042736"/>
-          <a:ext cx="7754022" cy="4142576"/>
+          <a:off x="247650" y="19224271"/>
+          <a:ext cx="7877287" cy="4182917"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -4196,8 +4195,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9073963" y="14780779"/>
-          <a:ext cx="7740576" cy="4023593"/>
+          <a:off x="9219640" y="14921973"/>
+          <a:ext cx="7875046" cy="4061693"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -4484,8 +4483,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9073963" y="18985586"/>
-          <a:ext cx="7740576" cy="4142576"/>
+          <a:off x="9219640" y="19167121"/>
+          <a:ext cx="7875046" cy="4182917"/>
           <a:chOff x="243840" y="469162"/>
           <a:chExt cx="7734300" cy="4057118"/>
         </a:xfrm>
@@ -7602,8 +7601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259976" y="24482612"/>
-          <a:ext cx="7754022" cy="4032885"/>
+          <a:off x="259976" y="24717936"/>
+          <a:ext cx="7877287" cy="4070985"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -8130,8 +8129,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9117106" y="24500542"/>
-          <a:ext cx="7754022" cy="4032885"/>
+          <a:off x="9262783" y="24735866"/>
+          <a:ext cx="7888492" cy="4070985"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4032885"/>
         </a:xfrm>
@@ -9112,8 +9111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="259978" y="35446446"/>
-          <a:ext cx="7744386" cy="4019891"/>
+          <a:off x="259978" y="35787104"/>
+          <a:ext cx="7867651" cy="4057991"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -9552,8 +9551,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9027460" y="35428517"/>
-          <a:ext cx="7744386" cy="4019891"/>
+          <a:off x="9173137" y="35769175"/>
+          <a:ext cx="7867650" cy="4057991"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7738029" cy="3939540"/>
         </a:xfrm>
@@ -10267,8 +10266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266701" y="30029523"/>
-          <a:ext cx="7756709" cy="4030646"/>
+          <a:off x="266701" y="30316394"/>
+          <a:ext cx="7879974" cy="4070986"/>
           <a:chOff x="259976" y="24482611"/>
           <a:chExt cx="7756667" cy="4032886"/>
         </a:xfrm>
@@ -10755,8 +10754,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8227360" y="30036249"/>
-          <a:ext cx="7765228" cy="4041851"/>
+          <a:off x="8361831" y="30323120"/>
+          <a:ext cx="7888492" cy="4082191"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4043986"/>
         </a:xfrm>
@@ -11366,8 +11365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17183101" y="30058658"/>
-          <a:ext cx="7745504" cy="4030646"/>
+          <a:off x="17463248" y="30345529"/>
+          <a:ext cx="7879974" cy="4070986"/>
           <a:chOff x="259976" y="24482611"/>
           <a:chExt cx="7756667" cy="4032886"/>
         </a:xfrm>
@@ -11854,8 +11853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25143761" y="30065384"/>
-          <a:ext cx="7765226" cy="4041851"/>
+          <a:off x="25558378" y="30352255"/>
+          <a:ext cx="7888492" cy="4082191"/>
           <a:chOff x="259976" y="24482612"/>
           <a:chExt cx="7754022" cy="4043986"/>
         </a:xfrm>
@@ -12826,8 +12825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17481176" y="611841"/>
-          <a:ext cx="7754023" cy="4030084"/>
+          <a:off x="17772529" y="616323"/>
+          <a:ext cx="7877287" cy="4068184"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -13588,54 +13587,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13645,19 +13643,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>9</v>
       </c>

--- a/JapanGameContest2023/ステージ仕様書.xlsx
+++ b/JapanGameContest2023/ステージ仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>【</t>
@@ -113,32 +113,6 @@
     <t>操作対象が複数体かつ、ページが分かれているステージ</t>
     <rPh sb="15" eb="16">
       <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページを切り替えればフォルダに当たらなくて済むステージ</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウイルスの速度がそれぞれ違う</t>
-    <rPh sb="5" eb="7">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13644,23 +13618,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
